--- a/Classification Results/Augmented Data/Full VPOP Classification/By Lab/Nelson 3 (24, 30, 57, 49, 53)/Ableson 3 (18, 29, 14, 48, 38)/NCDE_32nodes_Uniform0.05Virtual_Nelson(24, 30, 57, 49, 53)_Ableson(18, 29, 14, 48, 38)_100perPatient_batchsize200_2maxITER_StandardizeAll_smoothing0_dropout0_byLab.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Lab/Nelson 3 (24, 30, 57, 49, 53)/Ableson 3 (18, 29, 14, 48, 38)/NCDE_32nodes_Uniform0.05Virtual_Nelson(24, 30, 57, 49, 53)_Ableson(18, 29, 14, 48, 38)_100perPatient_batchsize200_2maxITER_StandardizeAll_smoothing0_dropout0_byLab.xlsx
@@ -456,10 +456,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0.0009995104825855237</v>
+        <v>0.0009840167343248343</v>
       </c>
       <c r="E2">
-        <v>0.0009995104825855237</v>
+        <v>0.0009840167343248343</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.49180115691627</v>
+        <v>0.4923721784310911</v>
       </c>
       <c r="E3">
-        <v>0.49180115691627</v>
+        <v>0.4923721784310911</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0.003562003501686199</v>
+        <v>0.003552574232653041</v>
       </c>
       <c r="E4">
-        <v>0.003562003501686199</v>
+        <v>0.003552574232653041</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0.001016666427620797</v>
+        <v>0.001020292602139061</v>
       </c>
       <c r="E5">
-        <v>0.001016666427620797</v>
+        <v>0.001020292602139061</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0.2672921519720031</v>
+        <v>0.2672365802257742</v>
       </c>
       <c r="E6">
-        <v>0.2672921519720031</v>
+        <v>0.2672365802257742</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.9783623641078988</v>
+        <v>0.9999999999972036</v>
       </c>
       <c r="E7">
-        <v>0.02163763589210121</v>
+        <v>2.796429754425844E-12</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -540,10 +540,10 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.9822742666107585</v>
+        <v>0.9734963279178319</v>
       </c>
       <c r="E8">
-        <v>0.01772573338924155</v>
+        <v>0.02650367208216808</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -554,10 +554,10 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.9777727444927065</v>
+        <v>0.9999999965829791</v>
       </c>
       <c r="E9">
-        <v>0.02222725550729354</v>
+        <v>3.417020888463185E-09</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -568,10 +568,10 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>0.9808678140018809</v>
+        <v>0.5395406062475749</v>
       </c>
       <c r="E10">
-        <v>0.01913218599811906</v>
+        <v>0.4604593937524251</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -582,13 +582,13 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0.9782843359105999</v>
+        <v>0.9203826970671617</v>
       </c>
       <c r="E11">
-        <v>0.02171566408940007</v>
+        <v>0.07961730293283831</v>
       </c>
       <c r="F11">
-        <v>0.1096986681222916</v>
+        <v>0.1721367985010147</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -605,10 +605,10 @@
         <v>1</v>
       </c>
       <c r="D12">
-        <v>8.582307490575599E-08</v>
+        <v>8.63202995278202E-08</v>
       </c>
       <c r="E12">
-        <v>8.582307490575599E-08</v>
+        <v>8.63202995278202E-08</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -619,10 +619,10 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.9999637398330035</v>
+        <v>0.9999638435713357</v>
       </c>
       <c r="E13">
-        <v>0.9999637398330035</v>
+        <v>0.9999638435713357</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -633,10 +633,10 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>0.00101880923242481</v>
+        <v>0.001020298220550728</v>
       </c>
       <c r="E14">
-        <v>0.00101880923242481</v>
+        <v>0.001020298220550728</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -647,10 +647,10 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>8.520396730173826E-05</v>
+        <v>8.505779214874644E-05</v>
       </c>
       <c r="E15">
-        <v>8.520396730173826E-05</v>
+        <v>8.505779214874644E-05</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -661,10 +661,10 @@
         <v>1</v>
       </c>
       <c r="D16">
-        <v>0.1411086233945621</v>
+        <v>0.1411269049977135</v>
       </c>
       <c r="E16">
-        <v>0.1411086233945621</v>
+        <v>0.1411269049977135</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -675,10 +675,10 @@
         <v>1</v>
       </c>
       <c r="D17">
-        <v>0.9987159715365395</v>
+        <v>1</v>
       </c>
       <c r="E17">
-        <v>0.00128402846346054</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -689,10 +689,10 @@
         <v>1</v>
       </c>
       <c r="D18">
-        <v>0.9929395377596631</v>
+        <v>0.9119228338508258</v>
       </c>
       <c r="E18">
-        <v>0.007060462240336851</v>
+        <v>0.08807716614917416</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -703,10 +703,10 @@
         <v>1</v>
       </c>
       <c r="D19">
-        <v>0.9992762316512255</v>
+        <v>0.999999999976799</v>
       </c>
       <c r="E19">
-        <v>0.0007237683487745228</v>
+        <v>2.320099667940667E-11</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -717,10 +717,10 @@
         <v>1</v>
       </c>
       <c r="D20">
-        <v>0.9947526014710069</v>
+        <v>0.6666683477065343</v>
       </c>
       <c r="E20">
-        <v>0.005247398528993141</v>
+        <v>0.3333316522934657</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -731,13 +731,13 @@
         <v>1</v>
       </c>
       <c r="D21">
-        <v>0.9985840914159495</v>
+        <v>0.9625873382108208</v>
       </c>
       <c r="E21">
-        <v>0.001415908584050496</v>
+        <v>0.03741266178917924</v>
       </c>
       <c r="F21">
-        <v>1.039378046989441</v>
+        <v>1.091668844223022</v>
       </c>
       <c r="G21">
         <v>0.9</v>
